--- a/Content/Teams/Content Pack English.xlsx
+++ b/Content/Teams/Content Pack English.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24630"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/jakelle_microsoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\powerappadventcalendar\Content\Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F713F487-2B6E-48AF-A08A-006D99E063C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E87CDB9-4ABC-4409-8025-06D2D9495048}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100B654C-20C6-4DCB-B543-B2829D40C987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -152,24 +152,73 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7DSbBr7Xwfs&amp;list=PLXPr7gfUMmKzwFu2OKzlwuCfhBlv6KCJG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/1.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/2.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/3.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/4.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/5.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/7.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/8.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/9.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/10.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/12.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/13.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/14.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/15.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/17.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/18.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/19.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/20.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/22.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/English/23.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,25 +247,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,8 +284,8 @@
     <tableColumn id="1" xr3:uid="{67E84B92-21A1-40A3-A103-813AB022D99D}" name="Title"/>
     <tableColumn id="2" xr3:uid="{7803FAA7-E45D-4D08-8307-FBA765413B99}" name="Day" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{F595F759-5B00-4446-8BB4-2E9B3DE4A32C}" name="Type" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{05BEFA07-045A-4108-8181-BC496093EEEC}" name="Content" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{EB19E4AA-3D6E-40A6-B66D-1812E242883D}" name="Link" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{05BEFA07-045A-4108-8181-BC496093EEEC}" name="Content"/>
+    <tableColumn id="6" xr3:uid="{EB19E4AA-3D6E-40A6-B66D-1812E242883D}" name="Link"/>
     <tableColumn id="4" xr3:uid="{5946A468-32BB-460A-991A-F64DCDAE6285}" name="Index"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -556,19 +602,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="48.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,404 +635,423 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>44531</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
       <c r="F2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>44532</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="F3">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>44533</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
       <c r="F4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>44534</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
       <c r="F5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>44535</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>44536</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>44537</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
       <c r="F8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>44538</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
       <c r="F9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>44539</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
       <c r="F10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>44540</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="F11">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>44541</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>44542</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
       <c r="F13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>44543</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
       <c r="F14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>44544</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
       <c r="F15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>44545</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>44546</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>44547</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
       <c r="F18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>44548</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>44549</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
       <c r="F20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>44550</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
       <c r="F21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>44551</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
       <c r="F22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>44552</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
       <c r="F23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>44553</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
       <c r="F24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>44554</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
       <c r="F25">
@@ -993,23 +1059,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{E13D39CB-BBCA-4EBE-9CC8-9FC1392D9CEA}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{602C218B-E4A2-4E96-A353-DADA93735DE2}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{C0A3E903-1769-47C6-97F1-032BFBADB50C}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{A57B4ABC-6094-4147-A40D-ADED64D49ABB}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{8027F2A0-167B-4D06-A09C-63AD06183851}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{9A43D380-199D-4F91-A96D-7174D4061005}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{6841AC09-FA14-4D3E-8460-B1D04D7A0437}"/>
-    <hyperlink ref="E22" r:id="rId8" xr:uid="{C6792CB8-00E6-4025-BDE6-3D428B9B13DE}"/>
-    <hyperlink ref="D25" r:id="rId9" xr:uid="{AE553711-CB82-4769-A605-CACA47F79689}"/>
-    <hyperlink ref="E25" r:id="rId10" xr:uid="{4F0FCAEC-CA4C-48B3-A6E5-F17464DB87A5}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1034,32 +1088,32 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1073,6 +1127,92 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100777DB4BD9E953546B515946AF28F7DA9" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0da4c0e7967ab90613fc23f763a5156">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="7011d684-d841-471c-9031-84b0b301070d" xmlns:ns4="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="931b6df896159ff5736adb0b1c9a3ae0" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1588,93 +1728,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A57166B1-F307-4C58-BB14-04F71658D735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1694,25 +1767,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
